--- a/biology/Botanique/Magnolia_grandiflora_'Treyviensis'/Magnolia_grandiflora_'Treyviensis'.xlsx
+++ b/biology/Botanique/Magnolia_grandiflora_'Treyviensis'/Magnolia_grandiflora_'Treyviensis'.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Magnolia_grandiflora_%27Treyviensis%27</t>
+          <t>Magnolia_grandiflora_'Treyviensis'</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Magnolia grandiflora ‘Treyviensis’ est un rare cultivar de Magnolia à grandes fleurs (Magnolia grandiflora) qui a été découvert à la fin du XIXe siècle par l'horticulteur François Treyve en Auvergne.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Magnolia_grandiflora_%27Treyviensis%27</t>
+          <t>Magnolia_grandiflora_'Treyviensis'</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se différencie du type par ses feuilles épaisses, plus ou moins gaufrées, ondulées et d'une remarquable couleur vert-foncé durant tout l'hiver.
 Le port de l'arbre est souvent moins droit et moins régulier que celui du type.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Magnolia_grandiflora_%27Treyviensis%27</t>
+          <t>Magnolia_grandiflora_'Treyviensis'</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Particularités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est l'un des Magnolia grandiflora les plus résistants au froid, parfaitement acclimaté aux climats tempérés à hivers froids. Ce cultivar a résisté aux terribles hivers de 1870 et de 1880. Contrairement à la majorité des lauriers-tulipiers, Magnolia grandiflora ‘Treyviensis’ émet des fleurs dès son plus jeune âge. Le point faible de ce cultivar est sa difficulté de multiplication, véritable frein à une diffusion plus large.
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Magnolia_grandiflora_%27Treyviensis%27</t>
+          <t>Magnolia_grandiflora_'Treyviensis'</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Exemplaires remarquables</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Probablement en raison de leur origine, les exemplaires les plus remarquables de Magnolia grandiflora ‘Treyviensis’ se situent en Auvergne.
 Le pied mère, c'est-à-dire le premier individu obtenu et par lequel dérivent tous les autres se trouve à Yzeure, dans la propriété de la famille Treyve.
@@ -592,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Magnolia_grandiflora_%27Treyviensis%27</t>
+          <t>Magnolia_grandiflora_'Treyviensis'</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,7 +628,9 @@
           <t>Cultivars proches</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Magnolia grandiflora ‘François Joseph’
 Magnolia grandiflora ‘Biflora’
